--- a/战场伤害计算器/通用武器/S5战场武器.xlsx
+++ b/战场伤害计算器/通用武器/S5战场武器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\战场伤害计算器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB35DE8-0D8E-4647-954B-4D2BCF89D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6714DE3-4A99-4676-ACAA-EA1B923A7568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A0626BEC-6A54-45E2-A616-4799BBA50B39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>AKM突击步枪</t>
-  </si>
-  <si>
-    <t>AKM突击步枪（实用长枪管）</t>
   </si>
   <si>
     <t>AKM突击步枪（性能枪管）</t>
@@ -860,19 +857,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDEC608-1B72-46C4-B570-AC82458C3676}">
-  <dimension ref="A1:AE199"/>
+  <dimension ref="A1:AE198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A24"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="22.109375" style="5" customWidth="1"/>
-    <col min="8" max="31" width="22.109375" style="3" customWidth="1"/>
+    <col min="1" max="7" width="22.109375" style="5"/>
+    <col min="8" max="31" width="22.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1">
@@ -910,7 +907,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="13.8">
+    <row r="2" spans="1:31" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -990,9 +987,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.8">
+    <row r="3" spans="1:31" ht="18" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -1010,7 +1007,7 @@
         <v>740</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G24" si="0">ROUND(60000/F3,2)</f>
+        <f t="shared" ref="G3:G23" si="0">ROUND(60000/F3,2)</f>
         <v>81.08</v>
       </c>
       <c r="H3" s="3">
@@ -1020,11 +1017,11 @@
         <v>24</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J24" si="1">ROUNDUP(100/I3,0)</f>
+        <f t="shared" ref="J3:J23" si="1">ROUNDUP(100/I3,0)</f>
         <v>5</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K24" si="2">E3+(J3-1)*G3</f>
+        <f t="shared" ref="K3:K23" si="2">E3+(J3-1)*G3</f>
         <v>324.32</v>
       </c>
       <c r="L3" s="3">
@@ -1073,7 +1070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.8">
+    <row r="4" spans="1:31" ht="18" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1154,7 +1151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.8">
+    <row r="5" spans="1:31" ht="18" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -1235,7 +1232,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="13.8">
+    <row r="6" spans="1:31" ht="18" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -1320,7 +1317,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="13.8">
+    <row r="7" spans="1:31" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -1405,7 +1402,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="13.8">
+    <row r="8" spans="1:31" ht="18" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -1486,7 +1483,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="13.8">
+    <row r="9" spans="1:31" ht="18" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>35</v>
@@ -1567,7 +1564,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.8">
+    <row r="10" spans="1:31" ht="18" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>36</v>
@@ -1648,7 +1645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="13.8">
+    <row r="11" spans="1:31" ht="18" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>37</v>
@@ -1729,7 +1726,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="13.8">
+    <row r="12" spans="1:31" ht="18" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -1810,7 +1807,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="13.8">
+    <row r="13" spans="1:31" ht="18" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -1891,7 +1888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="13.8">
+    <row r="14" spans="1:31" ht="18" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>41</v>
@@ -1972,7 +1969,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="13.8">
+    <row r="15" spans="1:31" ht="18" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>43</v>
@@ -2053,7 +2050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="13.8">
+    <row r="16" spans="1:31" ht="18" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -2134,7 +2131,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="13.8">
+    <row r="17" spans="1:31" ht="18" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -2215,7 +2212,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="13.8">
+    <row r="18" spans="1:31" ht="18" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>46</v>
@@ -2296,7 +2293,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="13.8">
+    <row r="19" spans="1:31" ht="18" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>47</v>
@@ -2377,7 +2374,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13.8">
+    <row r="20" spans="1:31" ht="18" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -2458,7 +2455,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="13.8">
+    <row r="21" spans="1:31" ht="18" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -2561,8 +2558,8 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <f>H21*1.15</f>
-        <v>632.5</v>
+        <f>H21*1.06</f>
+        <v>583</v>
       </c>
       <c r="I22" s="3">
         <v>26</v>
@@ -2576,7 +2573,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="M22" s="3">
         <v>1</v>
@@ -2597,29 +2594,29 @@
         <v>1</v>
       </c>
       <c r="S22" s="3">
-        <f>S21*1.15</f>
-        <v>34.5</v>
+        <f>S21*1.06</f>
+        <v>31.8</v>
       </c>
       <c r="T22" s="3">
         <v>0.85</v>
       </c>
       <c r="U22" s="3">
-        <f>U21*1.15</f>
-        <v>46</v>
+        <f>U21*1.06</f>
+        <v>42.400000000000006</v>
       </c>
       <c r="V22" s="3">
         <v>0.7</v>
       </c>
       <c r="W22" s="3">
-        <f>W21*1.15</f>
-        <v>69</v>
+        <f>W21*1.06</f>
+        <v>63.6</v>
       </c>
       <c r="X22" s="3">
         <v>0.6</v>
       </c>
       <c r="Y22" s="3">
-        <f>Y21*1.15</f>
-        <v>92</v>
+        <f>Y21*1.06</f>
+        <v>84.800000000000011</v>
       </c>
       <c r="Z22" s="3">
         <v>0.5</v>
@@ -2640,29 +2637,28 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H23" s="3">
-        <f>H21*1.06</f>
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="I23" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="L23" s="3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
@@ -2683,152 +2679,148 @@
         <v>1</v>
       </c>
       <c r="S23" s="3">
-        <f>S21*1.06</f>
-        <v>31.8</v>
+        <v>25</v>
       </c>
       <c r="T23" s="3">
         <v>0.85</v>
       </c>
       <c r="U23" s="3">
-        <f>U21*1.06</f>
-        <v>42.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="V23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="W23" s="3">
+        <v>60</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>80</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="18" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" ht="18" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>763</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G36" si="3">ROUND(60000/F25,2)</f>
+        <v>78.64</v>
+      </c>
+      <c r="H25" s="3">
+        <v>400</v>
+      </c>
+      <c r="I25" s="3">
+        <v>26</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" ref="J25:J36" si="4">ROUNDUP(100/I25,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" ref="K25:K36" si="5">E25+(J25-1)*G25</f>
+        <v>235.92000000000002</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S25" s="3">
+        <v>18</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U25" s="3">
+        <v>28</v>
+      </c>
+      <c r="V25" s="3">
         <v>0.7</v>
       </c>
-      <c r="W23" s="3">
-        <f>W21*1.06</f>
-        <v>63.6</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="W25" s="3">
+        <v>38</v>
+      </c>
+      <c r="X25" s="3">
         <v>0.6</v>
       </c>
-      <c r="Y23" s="3">
-        <f>Y21*1.06</f>
-        <v>84.800000000000011</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Y25" s="3">
+        <v>48</v>
+      </c>
+      <c r="Z25" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="13.8">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>800</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="H24" s="3">
-        <v>550</v>
-      </c>
-      <c r="I24" s="3">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>25</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="U24" s="3">
-        <v>40</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="W24" s="3">
-        <v>60</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>80</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="19.05" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:31" ht="13.8">
-      <c r="A26" s="10" t="s">
-        <v>53</v>
-      </c>
+    <row r="26" spans="1:31" ht="18" customHeight="1">
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2842,11 +2834,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G37" si="3">ROUND(60000/F26,2)</f>
-        <v>78.64</v>
+        <f t="shared" si="3"/>
+        <v>74.63</v>
       </c>
       <c r="H26" s="3">
         <v>400</v>
@@ -2855,12 +2847,12 @@
         <v>26</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:J37" si="4">ROUNDUP(100/I26,0)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26:K37" si="5">E26+(J26-1)*G26</f>
-        <v>235.92000000000002</v>
+        <f t="shared" si="5"/>
+        <v>223.89</v>
       </c>
       <c r="L26" s="1">
         <v>1.25</v>
@@ -2884,31 +2876,35 @@
         <v>0.9</v>
       </c>
       <c r="S26" s="3">
-        <v>18</v>
+        <f>S25*0.85</f>
+        <v>15.299999999999999</v>
       </c>
       <c r="T26" s="3">
         <v>0.8</v>
       </c>
       <c r="U26" s="3">
-        <v>28</v>
+        <f>U25*0.85</f>
+        <v>23.8</v>
       </c>
       <c r="V26" s="3">
         <v>0.7</v>
       </c>
       <c r="W26" s="3">
-        <v>38</v>
+        <f>W25*0.85</f>
+        <v>32.299999999999997</v>
       </c>
       <c r="X26" s="3">
         <v>0.6</v>
       </c>
       <c r="Y26" s="3">
-        <v>48</v>
+        <f>Y25*0.85</f>
+        <v>40.799999999999997</v>
       </c>
       <c r="Z26" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="13.8">
+    <row r="27" spans="1:31" ht="18" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>55</v>
@@ -2923,11 +2919,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>804</v>
+        <v>727</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="3"/>
-        <v>74.63</v>
+        <v>82.53</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
@@ -2941,7 +2937,7 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="5"/>
-        <v>223.89</v>
+        <v>247.59</v>
       </c>
       <c r="L27" s="1">
         <v>1.25</v>
@@ -2965,36 +2961,36 @@
         <v>0.9</v>
       </c>
       <c r="S27" s="3">
-        <f>S26*0.85</f>
-        <v>15.299999999999999</v>
+        <f>S25*1.12</f>
+        <v>20.160000000000004</v>
       </c>
       <c r="T27" s="3">
         <v>0.8</v>
       </c>
       <c r="U27" s="3">
-        <f>U26*0.85</f>
-        <v>23.8</v>
+        <f>U25*1.12</f>
+        <v>31.360000000000003</v>
       </c>
       <c r="V27" s="3">
         <v>0.7</v>
       </c>
       <c r="W27" s="3">
-        <f>W26*0.85</f>
-        <v>32.299999999999997</v>
+        <f>W25*1.12</f>
+        <v>42.56</v>
       </c>
       <c r="X27" s="3">
         <v>0.6</v>
       </c>
       <c r="Y27" s="3">
-        <f>Y26*0.85</f>
-        <v>40.799999999999997</v>
+        <f>Y25*1.12</f>
+        <v>53.760000000000005</v>
       </c>
       <c r="Z27" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="13.8">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:31" ht="18" customHeight="1">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -3008,25 +3004,25 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>727</v>
+        <v>950</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="3"/>
-        <v>82.53</v>
+        <v>63.16</v>
       </c>
       <c r="H28" s="3">
         <v>400</v>
       </c>
       <c r="I28" s="3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="5"/>
-        <v>247.59</v>
+        <v>252.64</v>
       </c>
       <c r="L28" s="1">
         <v>1.25</v>
@@ -3038,47 +3034,43 @@
         <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S28" s="3">
-        <f>S26*1.12</f>
-        <v>20.160000000000004</v>
+        <v>20</v>
       </c>
       <c r="T28" s="3">
         <v>0.8</v>
       </c>
       <c r="U28" s="3">
-        <f>U26*1.12</f>
-        <v>31.360000000000003</v>
+        <v>30</v>
       </c>
       <c r="V28" s="3">
         <v>0.7</v>
       </c>
       <c r="W28" s="3">
-        <f>W26*1.12</f>
-        <v>42.56</v>
+        <v>40</v>
       </c>
       <c r="X28" s="3">
         <v>0.6</v>
       </c>
       <c r="Y28" s="3">
-        <f>Y26*1.12</f>
-        <v>53.760000000000005</v>
+        <v>50</v>
       </c>
       <c r="Z28" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="13.8">
+    <row r="29" spans="1:31" ht="18" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>57</v>
@@ -3093,28 +3085,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>63.16</v>
+        <v>85.71</v>
       </c>
       <c r="H29" s="3">
         <v>400</v>
       </c>
       <c r="I29" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="5"/>
-        <v>252.64</v>
+        <v>257.13</v>
       </c>
       <c r="L29" s="1">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -3129,37 +3121,37 @@
         <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S29" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T29" s="3">
         <v>0.8</v>
       </c>
       <c r="U29" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V29" s="3">
         <v>0.7</v>
       </c>
       <c r="W29" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X29" s="3">
         <v>0.6</v>
       </c>
       <c r="Y29" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z29" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="13.8">
+    <row r="30" spans="1:31" ht="18" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>58</v>
@@ -3174,17 +3166,17 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>85.71</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="H30" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I30" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="4"/>
@@ -3192,10 +3184,10 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="5"/>
-        <v>257.13</v>
+        <v>240.95999999999998</v>
       </c>
       <c r="L30" s="1">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -3204,43 +3196,43 @@
         <v>1</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S30" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T30" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U30" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V30" s="3">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="W30" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X30" s="3">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y30" s="3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z30" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="13.8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="18" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>59</v>
@@ -3255,17 +3247,17 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>747</v>
+        <v>605</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>80.319999999999993</v>
+        <v>99.17</v>
       </c>
       <c r="H31" s="3">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="I31" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="4"/>
@@ -3273,7 +3265,7 @@
       </c>
       <c r="K31" s="3">
         <f t="shared" si="5"/>
-        <v>240.95999999999998</v>
+        <v>297.51</v>
       </c>
       <c r="L31" s="1">
         <v>1.25</v>
@@ -3285,43 +3277,43 @@
         <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>0.9</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="P31" s="1">
-        <v>0.9</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.8</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="R31" s="1">
-        <v>0.8</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="S31" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T31" s="3">
         <v>0.85</v>
       </c>
       <c r="U31" s="3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="V31" s="3">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="W31" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="X31" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Y31" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Z31" s="3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="13.8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="18" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>60</v>
@@ -3336,17 +3328,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>605</v>
+        <v>659</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>99.17</v>
+        <v>91.05</v>
       </c>
       <c r="H32" s="3">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="4"/>
@@ -3354,7 +3346,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="5"/>
-        <v>297.51</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="L32" s="1">
         <v>1.25</v>
@@ -3366,43 +3358,43 @@
         <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
       <c r="S32" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T32" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="U32" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V32" s="3">
         <v>0.7</v>
       </c>
       <c r="W32" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X32" s="3">
         <v>0.6</v>
       </c>
       <c r="Y32" s="3">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="13.8">
+    <row r="33" spans="1:31" ht="18" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
@@ -3414,28 +3406,28 @@
         <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
-        <v>659</v>
+        <v>780</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>91.05</v>
+        <v>76.92</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
       </c>
       <c r="I33" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>367.68</v>
       </c>
       <c r="L33" s="1">
         <v>1.25</v>
@@ -3459,56 +3451,56 @@
         <v>1</v>
       </c>
       <c r="S33" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T33" s="3">
         <v>0.8</v>
       </c>
       <c r="U33" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V33" s="3">
         <v>0.7</v>
       </c>
       <c r="W33" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X33" s="3">
         <v>0.6</v>
       </c>
       <c r="Y33" s="3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z33" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="13.8">
+    <row r="34" spans="1:31" ht="18" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>780</v>
+        <v>1091</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>76.92</v>
+        <v>55</v>
       </c>
       <c r="H34" s="3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="I34" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="4"/>
@@ -3516,7 +3508,7 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="5"/>
-        <v>367.68</v>
+        <v>220</v>
       </c>
       <c r="L34" s="1">
         <v>1.25</v>
@@ -3534,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S34" s="3">
         <v>15</v>
@@ -3564,13 +3556,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="13.8">
+    <row r="35" spans="1:31" ht="18" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -3579,17 +3571,17 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>1091</v>
+        <v>898</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="H35" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="I35" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="4"/>
@@ -3597,7 +3589,7 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" si="5"/>
-        <v>220</v>
+        <v>267.27999999999997</v>
       </c>
       <c r="L35" s="1">
         <v>1.25</v>
@@ -3615,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S35" s="3">
         <v>15</v>
@@ -3642,16 +3634,16 @@
         <v>45</v>
       </c>
       <c r="Z35" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" ht="13.8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="18" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -3660,25 +3652,25 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>898</v>
+        <v>820</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="3"/>
-        <v>66.819999999999993</v>
+        <v>73.17</v>
       </c>
       <c r="H36" s="3">
         <v>400</v>
       </c>
       <c r="I36" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="5"/>
-        <v>267.27999999999997</v>
+        <v>219.51</v>
       </c>
       <c r="L36" s="1">
         <v>1.25</v>
@@ -3690,16 +3682,16 @@
         <v>1</v>
       </c>
       <c r="O36" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S36" s="3">
         <v>15</v>
@@ -3723,132 +3715,130 @@
         <v>45</v>
       </c>
       <c r="Z36" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" ht="13.8">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="18" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="7"/>
+    </row>
+    <row r="38" spans="1:31" ht="18" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="1">
-        <v>820</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="3"/>
-        <v>73.17</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="F38" s="1">
+        <v>375</v>
+      </c>
+      <c r="G38" s="1">
+        <f>ROUND(60000/F38,2)</f>
+        <v>160</v>
+      </c>
+      <c r="H38" s="3">
         <v>400</v>
       </c>
-      <c r="I37" s="3">
-        <v>26</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="5"/>
-        <v>219.51</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="I38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="1">
         <v>1.25</v>
       </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S37" s="3">
-        <v>15</v>
-      </c>
-      <c r="T37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="U37" s="3">
-        <v>25</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="W37" s="3">
-        <v>35</v>
-      </c>
-      <c r="X37" s="3">
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="3">
+        <v>8</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="U38" s="3">
+        <v>12</v>
+      </c>
+      <c r="V38" s="3">
         <v>0.6</v>
       </c>
-      <c r="Y37" s="3">
-        <v>45</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" ht="19.05" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="7"/>
+      <c r="W38" s="3">
+        <v>18</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="1:31" ht="18" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -3857,23 +3847,23 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="G39" s="1">
         <f>ROUND(60000/F39,2)</f>
-        <v>160</v>
+        <v>810.81</v>
       </c>
       <c r="H39" s="3">
         <v>400</v>
       </c>
       <c r="I39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="L39" s="1">
         <v>1.25</v>
@@ -3897,37 +3887,37 @@
         <v>1</v>
       </c>
       <c r="S39" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T39" s="3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="U39" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V39" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="W39" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X39" s="3">
         <v>0.2</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="18" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -3936,23 +3926,23 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>74</v>
+        <v>300</v>
       </c>
       <c r="G40" s="1">
         <f>ROUND(60000/F40,2)</f>
-        <v>810.81</v>
+        <v>200</v>
       </c>
       <c r="H40" s="3">
         <v>400</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J40" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L40" s="1">
         <v>1.25</v>
@@ -3976,37 +3966,37 @@
         <v>1</v>
       </c>
       <c r="S40" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T40" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U40" s="3">
+        <v>8</v>
+      </c>
+      <c r="V40" s="3">
         <v>0.6</v>
       </c>
-      <c r="U40" s="3">
-        <v>15</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0.4</v>
-      </c>
       <c r="W40" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X40" s="3">
         <v>0.2</v>
       </c>
-      <c r="Y40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="13.8">
+      <c r="Y40" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="18" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -4015,23 +4005,23 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="G41" s="1">
         <f>ROUND(60000/F41,2)</f>
-        <v>200</v>
+        <v>229.89</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L41" s="1">
         <v>1.25</v>
@@ -4079,127 +4069,129 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="13.8">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>261</v>
-      </c>
-      <c r="G42" s="1">
-        <f>ROUND(60000/F42,2)</f>
-        <v>229.89</v>
-      </c>
-      <c r="H42" s="3">
-        <v>400</v>
-      </c>
-      <c r="I42" s="3" t="s">
+    <row r="42" spans="1:31" ht="18" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="7"/>
+    </row>
+    <row r="43" spans="1:31" ht="18" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J42" s="3">
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>60</v>
+      </c>
+      <c r="F43" s="1">
+        <v>785</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ref="G43:G48" si="6">ROUND(60000/F43,2)</f>
+        <v>76.430000000000007</v>
+      </c>
+      <c r="H43" s="3">
+        <v>550</v>
+      </c>
+      <c r="I43" s="3">
+        <v>21</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" ref="J43:J48" si="7">ROUNDUP(100/I43,0)</f>
         <v>5</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-      <c r="S42" s="3">
-        <v>4</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="U42" s="3">
-        <v>8</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="K43" s="3">
+        <f t="shared" ref="K43:K48" si="8">E43+(J43-1)*G43</f>
+        <v>365.72</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S43" s="3">
+        <v>40</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="U43" s="3">
+        <v>50</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="W43" s="3">
+        <v>70</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>90</v>
+      </c>
+      <c r="Z43" s="3">
         <v>0.6</v>
       </c>
-      <c r="W42" s="3">
-        <v>12</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>20</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" ht="19.05" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="7"/>
-    </row>
-    <row r="44" spans="1:31" ht="13.8">
-      <c r="A44" s="10" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="44" spans="1:31" ht="18" customHeight="1">
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -4208,11 +4200,11 @@
         <v>60</v>
       </c>
       <c r="F44" s="1">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ref="G44:G49" si="6">ROUND(60000/F44,2)</f>
-        <v>76.430000000000007</v>
+        <f t="shared" si="6"/>
+        <v>72.55</v>
       </c>
       <c r="H44" s="3">
         <v>550</v>
@@ -4221,12 +4213,12 @@
         <v>21</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" ref="J44:J49" si="7">ROUNDUP(100/I44,0)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" ref="K44:K49" si="8">E44+(J44-1)*G44</f>
-        <v>365.72</v>
+        <f t="shared" si="8"/>
+        <v>350.2</v>
       </c>
       <c r="L44" s="1">
         <v>1.9</v>
@@ -4250,37 +4242,41 @@
         <v>0.9</v>
       </c>
       <c r="S44" s="3">
-        <v>40</v>
+        <f>S43*0.75</f>
+        <v>30</v>
       </c>
       <c r="T44" s="3">
         <v>0.85</v>
       </c>
       <c r="U44" s="3">
-        <v>50</v>
+        <f>U43*0.75</f>
+        <v>37.5</v>
       </c>
       <c r="V44" s="3">
         <v>0.75</v>
       </c>
       <c r="W44" s="3">
-        <v>70</v>
+        <f>W43*0.75</f>
+        <v>52.5</v>
       </c>
       <c r="X44" s="3">
         <v>0.65</v>
       </c>
       <c r="Y44" s="3">
-        <v>90</v>
+        <f>Y43*0.75</f>
+        <v>67.5</v>
       </c>
       <c r="Z44" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="13.8">
+    <row r="45" spans="1:31" ht="18" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -4289,11 +4285,11 @@
         <v>60</v>
       </c>
       <c r="F45" s="1">
-        <v>827</v>
+        <v>748</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="6"/>
-        <v>72.55</v>
+        <v>80.209999999999994</v>
       </c>
       <c r="H45" s="3">
         <v>550</v>
@@ -4307,7 +4303,7 @@
       </c>
       <c r="K45" s="3">
         <f t="shared" si="8"/>
-        <v>350.2</v>
+        <v>380.84</v>
       </c>
       <c r="L45" s="1">
         <v>1.9</v>
@@ -4331,68 +4327,68 @@
         <v>0.9</v>
       </c>
       <c r="S45" s="3">
-        <f>S44*0.75</f>
-        <v>30</v>
+        <f>S43*1.15</f>
+        <v>46</v>
       </c>
       <c r="T45" s="3">
         <v>0.85</v>
       </c>
       <c r="U45" s="3">
-        <f>U44*0.75</f>
-        <v>37.5</v>
+        <f>U43*1.15</f>
+        <v>57.499999999999993</v>
       </c>
       <c r="V45" s="3">
         <v>0.75</v>
       </c>
       <c r="W45" s="3">
-        <f>W44*0.75</f>
-        <v>52.5</v>
+        <f>W43*1.15</f>
+        <v>80.5</v>
       </c>
       <c r="X45" s="3">
         <v>0.65</v>
       </c>
       <c r="Y45" s="3">
-        <f>Y44*0.75</f>
-        <v>67.5</v>
+        <f>Y43*1.15</f>
+        <v>103.49999999999999</v>
       </c>
       <c r="Z45" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="13.8">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:31" ht="18" customHeight="1">
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F46" s="1">
-        <v>748</v>
+        <v>550</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="6"/>
-        <v>80.209999999999994</v>
+        <v>109.09</v>
       </c>
       <c r="H46" s="3">
         <v>550</v>
       </c>
       <c r="I46" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="8"/>
-        <v>380.84</v>
+        <v>318.18</v>
       </c>
       <c r="L46" s="1">
         <v>1.9</v>
@@ -4401,83 +4397,79 @@
         <v>1</v>
       </c>
       <c r="N46" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O46" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="R46" s="1">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="S46" s="3">
-        <f>S44*1.15</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T46" s="3">
-        <v>0.85</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="U46" s="3">
-        <f>U44*1.15</f>
-        <v>57.499999999999993</v>
+        <v>50</v>
       </c>
       <c r="V46" s="3">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="W46" s="3">
-        <f>W44*1.15</f>
-        <v>80.5</v>
+        <v>70</v>
       </c>
       <c r="X46" s="3">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="Y46" s="3">
-        <f>Y44*1.15</f>
-        <v>103.49999999999999</v>
+        <v>90</v>
       </c>
       <c r="Z46" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" ht="13.8">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="18" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1">
-        <v>550</v>
+        <v>858</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="6"/>
-        <v>109.09</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="H47" s="3">
         <v>550</v>
       </c>
       <c r="I47" s="3">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="8"/>
-        <v>318.18</v>
+        <v>329.72</v>
       </c>
       <c r="L47" s="1">
         <v>1.9</v>
@@ -4486,13 +4478,13 @@
         <v>1</v>
       </c>
       <c r="N47" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
         <v>0.8</v>
@@ -4504,34 +4496,34 @@
         <v>40</v>
       </c>
       <c r="T47" s="3">
-        <v>0.77500000000000002</v>
+        <v>0.85</v>
       </c>
       <c r="U47" s="3">
         <v>50</v>
       </c>
       <c r="V47" s="3">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="W47" s="3">
         <v>70</v>
       </c>
       <c r="X47" s="3">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="Y47" s="3">
         <v>90</v>
       </c>
       <c r="Z47" s="3">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" ht="13.8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="18" customHeight="1">
       <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -4540,25 +4532,25 @@
         <v>50</v>
       </c>
       <c r="F48" s="1">
-        <v>858</v>
+        <v>669</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="6"/>
-        <v>69.930000000000007</v>
+        <v>89.69</v>
       </c>
       <c r="H48" s="3">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="8"/>
-        <v>329.72</v>
+        <v>319.07</v>
       </c>
       <c r="L48" s="1">
         <v>1.9</v>
@@ -4576,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0.8</v>
@@ -4591,144 +4583,144 @@
         <v>50</v>
       </c>
       <c r="V48" s="3">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="W48" s="3">
         <v>70</v>
       </c>
       <c r="X48" s="3">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="Y48" s="3">
         <v>90</v>
       </c>
       <c r="Z48" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="13.8">
-      <c r="A49" s="8"/>
-      <c r="B49" s="1" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="18" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="7"/>
+    </row>
+    <row r="50" spans="1:31" ht="18" customHeight="1">
+      <c r="A50" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>50</v>
-      </c>
-      <c r="F49" s="1">
-        <v>669</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="6"/>
-        <v>89.69</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>25</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <f t="shared" si="8"/>
-        <v>319.07</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-      <c r="P49" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>1</v>
-      </c>
-      <c r="R49" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S49" s="3">
-        <v>40</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>300</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" ref="G50:G57" si="9">ROUND(60000/F50,2)</f>
+        <v>200</v>
+      </c>
+      <c r="H50" s="3">
+        <v>550</v>
+      </c>
+      <c r="I50" s="3">
+        <v>35</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" ref="J50:J57" si="10">ROUNDUP(100/I50,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" ref="K50:K57" si="11">E50+(J50-1)*G50</f>
+        <v>400</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S50" s="3">
+        <v>90</v>
+      </c>
+      <c r="T50" s="3">
         <v>0.85</v>
       </c>
-      <c r="U49" s="3">
-        <v>50</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="W49" s="3">
-        <v>70</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>90</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" ht="19.05" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
-      <c r="AC50" s="9"/>
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="7"/>
-    </row>
-    <row r="51" spans="1:31" ht="13.8">
-      <c r="A51" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="U50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="18" customHeight="1">
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -4737,11 +4729,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" ref="G51:G58" si="9">ROUND(60000/F51,2)</f>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>229.89</v>
       </c>
       <c r="H51" s="3">
         <v>550</v>
@@ -4750,12 +4742,12 @@
         <v>35</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" ref="J51:J58" si="10">ROUNDUP(100/I51,0)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" ref="K51:K58" si="11">E51+(J51-1)*G51</f>
-        <v>400</v>
+        <f t="shared" si="11"/>
+        <v>459.78</v>
       </c>
       <c r="L51" s="1">
         <v>1.5</v>
@@ -4785,31 +4777,31 @@
         <v>0.85</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="18" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -4818,11 +4810,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="9"/>
-        <v>229.89</v>
+        <v>164.84</v>
       </c>
       <c r="H52" s="3">
         <v>550</v>
@@ -4836,7 +4828,7 @@
       </c>
       <c r="K52" s="3">
         <f t="shared" si="11"/>
-        <v>459.78</v>
+        <v>329.68</v>
       </c>
       <c r="L52" s="1">
         <v>1.5</v>
@@ -4866,31 +4858,31 @@
         <v>0.85</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="18" customHeight="1">
       <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -4899,28 +4891,28 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>364</v>
+        <v>510</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="9"/>
-        <v>164.84</v>
+        <v>117.65</v>
       </c>
       <c r="H53" s="3">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="I53" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="11"/>
-        <v>329.68</v>
+        <v>352.95000000000005</v>
       </c>
       <c r="L53" s="1">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="M53" s="1">
         <v>1</v>
@@ -4929,65 +4921,65 @@
         <v>1</v>
       </c>
       <c r="O53" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P53" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S53" s="3">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="T53" s="3">
         <v>0.85</v>
       </c>
-      <c r="U53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>71</v>
+      <c r="U53" s="3">
+        <v>90</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0.7</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="18" customHeight="1">
       <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>510</v>
+        <v>727</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="9"/>
-        <v>117.65</v>
+        <v>82.53</v>
       </c>
       <c r="H54" s="3">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="I54" s="3">
         <v>27</v>
@@ -4998,7 +4990,7 @@
       </c>
       <c r="K54" s="3">
         <f t="shared" si="11"/>
-        <v>352.95000000000005</v>
+        <v>247.59</v>
       </c>
       <c r="L54" s="1">
         <v>1.9</v>
@@ -5016,73 +5008,73 @@
         <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R54" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S54" s="3">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="T54" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="U54" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="V54" s="3">
         <v>0.7</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z54" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" ht="13.8">
+      <c r="W54" s="3">
+        <v>60</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>80</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="18" customHeight="1">
       <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>727</v>
+        <v>300</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="9"/>
-        <v>82.53</v>
+        <v>200</v>
       </c>
       <c r="H55" s="3">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="I55" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="11"/>
-        <v>247.59</v>
+        <v>400</v>
       </c>
       <c r="L55" s="1">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
@@ -5091,49 +5083,49 @@
         <v>1</v>
       </c>
       <c r="O55" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Q55" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R55" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="S55" s="3">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="T55" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="U55" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="V55" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="W55" s="3">
-        <v>60</v>
-      </c>
-      <c r="X55" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Y55" s="3">
-        <v>80</v>
-      </c>
-      <c r="Z55" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="13.8">
+        <v>0.625</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="18" customHeight="1">
       <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -5142,28 +5134,28 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="9"/>
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H56" s="3">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="I56" s="3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" si="11"/>
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="L56" s="1">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -5172,49 +5164,49 @@
         <v>1</v>
       </c>
       <c r="O56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S56" s="3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="T56" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="U56" s="3">
-        <v>90</v>
-      </c>
-      <c r="V56" s="3">
-        <v>0.625</v>
+        <v>0.85</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="18" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -5223,17 +5215,17 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="9"/>
-        <v>125</v>
+        <v>101.69</v>
       </c>
       <c r="H57" s="3">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="I57" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="10"/>
@@ -5241,7 +5233,7 @@
       </c>
       <c r="K57" s="3">
         <f t="shared" si="11"/>
-        <v>375</v>
+        <v>305.07</v>
       </c>
       <c r="L57" s="1">
         <v>1.9</v>
@@ -5265,179 +5257,178 @@
         <v>1</v>
       </c>
       <c r="S57" s="3">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="T57" s="3">
         <v>0.85</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" ht="13.8">
-      <c r="A58" s="8"/>
-      <c r="B58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="18" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="7"/>
+    </row>
+    <row r="59" spans="1:31" ht="18" customHeight="1">
+      <c r="A59" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="1">
         <v>2</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="1">
-        <v>590</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="9"/>
-        <v>101.69</v>
-      </c>
-      <c r="H58" s="3">
-        <v>650</v>
-      </c>
-      <c r="I58" s="3">
-        <v>25</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="11"/>
-        <v>305.07</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="M58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>1</v>
-      </c>
-      <c r="R58" s="1">
-        <v>1</v>
-      </c>
-      <c r="S58" s="3">
-        <v>90</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="F59" s="1">
+        <v>35</v>
+      </c>
+      <c r="G59" s="1">
+        <f>ROUND(60000/F59,2)</f>
+        <v>1714.29</v>
+      </c>
+      <c r="H59" s="3">
+        <v>750</v>
+      </c>
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" ref="J59:J62" si="12">ROUNDUP(100/I59,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>750</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
         <v>0.85</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="19.05" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="7"/>
-    </row>
-    <row r="60" spans="1:31" ht="13.8">
-      <c r="A60" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="O59" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="S59" s="3">
+        <v>30</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="18" customHeight="1">
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G60" s="1">
         <f>ROUND(60000/F60,2)</f>
-        <v>1714.29</v>
+        <v>1250</v>
       </c>
       <c r="H60" s="3">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" ref="J60:J63" si="12">ROUNDUP(100/I60,0)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="K60" s="3">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L60" s="1">
         <v>2.4</v>
@@ -5446,71 +5437,71 @@
         <v>1</v>
       </c>
       <c r="N60" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="P60" s="1">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="R60" s="1">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="S60" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="T60" s="3">
         <v>0.7</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="18" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G61" s="1">
         <f>ROUND(60000/F61,2)</f>
-        <v>1250</v>
+        <v>1071.43</v>
       </c>
       <c r="H61" s="3">
         <v>650</v>
       </c>
       <c r="I61" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="12"/>
@@ -5529,16 +5520,16 @@
         <v>1</v>
       </c>
       <c r="O61" s="1">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="P61" s="1">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="S61" s="3">
         <v>55</v>
@@ -5547,57 +5538,57 @@
         <v>0.7</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="18" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G62" s="1">
         <f>ROUND(60000/F62,2)</f>
-        <v>1071.43</v>
+        <v>1363.64</v>
       </c>
       <c r="H62" s="3">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="I62" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K62" s="3">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="L62" s="1">
         <v>2.4</v>
@@ -5627,176 +5618,177 @@
         <v>0.7</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="13.8">
-      <c r="A63" s="8"/>
-      <c r="B63" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="18" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="7"/>
+    </row>
+    <row r="64" spans="1:31" ht="18" customHeight="1">
+      <c r="A64" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="F63" s="1">
-        <v>44</v>
-      </c>
-      <c r="G63" s="1">
-        <f>ROUND(60000/F63,2)</f>
-        <v>1363.64</v>
-      </c>
-      <c r="H63" s="3">
-        <v>720</v>
-      </c>
-      <c r="I63" s="3">
-        <v>76</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K63" s="3">
-        <v>720</v>
-      </c>
-      <c r="L63" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="M63" s="1">
-        <v>1</v>
-      </c>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1">
-        <v>1</v>
-      </c>
-      <c r="P63" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>1</v>
-      </c>
-      <c r="R63" s="1">
-        <v>1</v>
-      </c>
-      <c r="S63" s="3">
-        <v>55</v>
-      </c>
-      <c r="T63" s="3">
+      <c r="F64" s="1">
+        <v>373</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" ref="G64:G69" si="13">ROUND(60000/F64,2)</f>
+        <v>160.86000000000001</v>
+      </c>
+      <c r="H64" s="3">
+        <v>400</v>
+      </c>
+      <c r="I64" s="3">
+        <v>35</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" ref="J64:J69" si="14">ROUNDUP(100/I64,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K64" s="3">
+        <f>E64+(J64-1)*G64</f>
+        <v>321.72000000000003</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="S64" s="3">
+        <v>20</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="U64" s="3">
+        <v>30</v>
+      </c>
+      <c r="V64" s="3">
         <v>0.7</v>
       </c>
-      <c r="U63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z63" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="19.05" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="7"/>
-    </row>
-    <row r="65" spans="1:26" ht="13.8">
-      <c r="A65" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="W64" s="3">
+        <v>40</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z64" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="18" customHeight="1">
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" ref="G65:G70" si="13">ROUND(60000/F65,2)</f>
-        <v>160.86000000000001</v>
+        <f t="shared" si="13"/>
+        <v>129.87</v>
       </c>
       <c r="H65" s="3">
         <v>400</v>
       </c>
       <c r="I65" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" ref="J65:J70" si="14">ROUNDUP(100/I65,0)</f>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="K65" s="3">
         <f>E65+(J65-1)*G65</f>
-        <v>321.72000000000003</v>
+        <v>389.61</v>
       </c>
       <c r="L65" s="1">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="M65" s="1">
         <v>1</v>
@@ -5805,49 +5797,49 @@
         <v>1</v>
       </c>
       <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1">
+        <v>1</v>
+      </c>
+      <c r="S65" s="3">
+        <v>15</v>
+      </c>
+      <c r="T65" s="3">
         <v>0.8</v>
       </c>
-      <c r="P65" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S65" s="3">
-        <v>20</v>
-      </c>
-      <c r="T65" s="3">
-        <v>0.9</v>
-      </c>
       <c r="U65" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V65" s="3">
         <v>0.7</v>
       </c>
       <c r="W65" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X65" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="18" customHeight="1">
       <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -5856,28 +5848,28 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>462</v>
+        <v>1172</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="13"/>
-        <v>129.87</v>
+        <v>51.19</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K66" s="3">
         <f>E66+(J66-1)*G66</f>
-        <v>389.61</v>
+        <v>358.33</v>
       </c>
       <c r="L66" s="1">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="M66" s="1">
         <v>1</v>
@@ -5898,37 +5890,37 @@
         <v>1</v>
       </c>
       <c r="S66" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T66" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U66" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V66" s="3">
         <v>0.7</v>
       </c>
       <c r="W66" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X66" s="3">
         <v>0.6</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z66" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="18" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -5937,28 +5929,28 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>1172</v>
+        <v>207</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="13"/>
-        <v>51.19</v>
+        <v>289.86</v>
       </c>
       <c r="H67" s="3">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="I67" s="3">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K67" s="3">
         <f>E67+(J67-1)*G67</f>
-        <v>358.33</v>
+        <v>289.86</v>
       </c>
       <c r="L67" s="1">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="M67" s="1">
         <v>1</v>
@@ -5979,64 +5971,64 @@
         <v>1</v>
       </c>
       <c r="S67" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T67" s="3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="U67" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="V67" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W67" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="X67" s="3">
         <v>0.6</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="18" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F68" s="1">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="13"/>
-        <v>289.86</v>
+        <v>329.67</v>
       </c>
       <c r="H68" s="3">
         <v>340</v>
       </c>
       <c r="I68" s="3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="K68" s="3">
-        <f>E68+(J68-1)*G68</f>
-        <v>289.86</v>
+        <f>E68*J68+(J68-1)*G68</f>
+        <v>529.67000000000007</v>
       </c>
       <c r="L68" s="1">
         <v>2.4</v>
@@ -6060,67 +6052,67 @@
         <v>1</v>
       </c>
       <c r="S68" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="T68" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="U68" s="3">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="V68" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="W68" s="3">
-        <v>50</v>
-      </c>
-      <c r="X68" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="18" customHeight="1">
       <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" si="13"/>
-        <v>329.67</v>
+        <v>160</v>
       </c>
       <c r="H69" s="3">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="I69" s="3">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" s="3">
-        <f>E69*J69+(J69-1)*G69</f>
-        <v>529.67000000000007</v>
+        <f>E69+(J69-1)*G69</f>
+        <v>320</v>
       </c>
       <c r="L69" s="1">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="M69" s="1">
         <v>1</v>
@@ -6135,118 +6127,46 @@
         <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R69" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S69" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="T69" s="3">
         <v>0.8</v>
       </c>
       <c r="U69" s="3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="V69" s="3">
         <v>0.7</v>
       </c>
-      <c r="W69" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X69" s="3" t="s">
-        <v>71</v>
+      <c r="W69" s="3">
+        <v>35</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" ht="13.8">
-      <c r="A70" s="8"/>
-      <c r="B70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>375</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="13"/>
-        <v>160</v>
-      </c>
-      <c r="H70" s="3">
-        <v>400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>34</v>
-      </c>
-      <c r="J70" s="3">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="K70" s="3">
-        <f>E70+(J70-1)*G70</f>
-        <v>320</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="M70" s="1">
-        <v>1</v>
-      </c>
-      <c r="N70" s="1">
-        <v>1</v>
-      </c>
-      <c r="O70" s="1">
-        <v>1</v>
-      </c>
-      <c r="P70" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S70" s="3">
-        <v>15</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="U70" s="3">
-        <v>25</v>
-      </c>
-      <c r="V70" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="W70" s="3">
-        <v>35</v>
-      </c>
-      <c r="X70" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Y70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z70" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" ht="13.8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="18" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:26" ht="18" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6255,7 +6175,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="13.8">
+    <row r="72" spans="1:26" ht="18" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6264,7 +6184,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="13.8">
+    <row r="73" spans="1:26" ht="18" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6273,7 +6193,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="13.8">
+    <row r="74" spans="1:26" ht="18" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6282,27 +6202,27 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="13.8">
+    <row r="75" spans="1:26" ht="18" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="13.8">
+    <row r="76" spans="1:26" ht="18" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="13.8">
+    <row r="77" spans="1:26" ht="18" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6311,7 +6231,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="13.8">
+    <row r="78" spans="1:26" ht="18" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6320,7 +6240,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="13.8">
+    <row r="79" spans="1:26" ht="18" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6329,7 +6249,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="13.8">
+    <row r="80" spans="1:26" ht="18" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6338,7 +6258,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="13.8">
+    <row r="81" spans="1:7" ht="18" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6347,7 +6267,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="13.8">
+    <row r="82" spans="1:7" ht="18" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6356,7 +6276,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="13.8">
+    <row r="83" spans="1:7" ht="18" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6365,7 +6285,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="13.8">
+    <row r="84" spans="1:7" ht="18" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6374,7 +6294,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="13.8">
+    <row r="85" spans="1:7" ht="18" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6383,7 +6303,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="13.8">
+    <row r="86" spans="1:7" ht="18" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6392,7 +6312,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="13.8">
+    <row r="87" spans="1:7" ht="18" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6401,7 +6321,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="13.8">
+    <row r="88" spans="1:7" ht="18" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6410,7 +6330,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="13.8">
+    <row r="89" spans="1:7" ht="18" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6419,7 +6339,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="13.8">
+    <row r="90" spans="1:7" ht="18" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6428,7 +6348,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="13.8">
+    <row r="91" spans="1:7" ht="18" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6437,7 +6357,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="13.8">
+    <row r="92" spans="1:7" ht="18" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6446,7 +6366,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="13.8">
+    <row r="93" spans="1:7" ht="18" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6455,7 +6375,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="13.8">
+    <row r="94" spans="1:7" ht="18" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6464,7 +6384,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="13.8">
+    <row r="95" spans="1:7" ht="18" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6473,7 +6393,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="13.8">
+    <row r="96" spans="1:7" ht="18" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6482,7 +6402,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="13.8">
+    <row r="97" spans="1:7" ht="18" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6491,7 +6411,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="13.8">
+    <row r="98" spans="1:7" ht="18" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6500,7 +6420,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="13.8">
+    <row r="99" spans="1:7" ht="18" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6509,7 +6429,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="13.8">
+    <row r="100" spans="1:7" ht="18" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6518,7 +6438,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="13.8">
+    <row r="101" spans="1:7" ht="18" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6527,7 +6447,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="13.8">
+    <row r="102" spans="1:7" ht="18" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6536,7 +6456,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="13.8">
+    <row r="103" spans="1:7" ht="18" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6545,7 +6465,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="13.8">
+    <row r="104" spans="1:7" ht="18" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6554,7 +6474,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="13.8">
+    <row r="105" spans="1:7" ht="18" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6563,7 +6483,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="13.8">
+    <row r="106" spans="1:7" ht="18" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6572,7 +6492,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="13.8">
+    <row r="107" spans="1:7" ht="18" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6581,7 +6501,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="13.8">
+    <row r="108" spans="1:7" ht="18" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6590,7 +6510,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="13.8">
+    <row r="109" spans="1:7" ht="18" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6599,7 +6519,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="13.8">
+    <row r="110" spans="1:7" ht="18" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6608,7 +6528,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="13.8">
+    <row r="111" spans="1:7" ht="18" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6617,7 +6537,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" ht="13.8">
+    <row r="112" spans="1:7" ht="18" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6626,7 +6546,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="13.8">
+    <row r="113" spans="1:7" ht="18" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6635,7 +6555,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="13.8">
+    <row r="114" spans="1:7" ht="18" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6644,7 +6564,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" ht="13.8">
+    <row r="115" spans="1:7" ht="18" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6653,7 +6573,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="13.8">
+    <row r="116" spans="1:7" ht="18" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6662,7 +6582,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="13.8">
+    <row r="117" spans="1:7" ht="18" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6671,7 +6591,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="13.8">
+    <row r="118" spans="1:7" ht="18" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6680,7 +6600,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="13.8">
+    <row r="119" spans="1:7" ht="18" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6689,7 +6609,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="13.8">
+    <row r="120" spans="1:7" ht="18" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6698,7 +6618,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="13.8">
+    <row r="121" spans="1:7" ht="18" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6707,7 +6627,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="13.8">
+    <row r="122" spans="1:7" ht="18" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6716,7 +6636,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="13.8">
+    <row r="123" spans="1:7" ht="18" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6725,7 +6645,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="13.8">
+    <row r="124" spans="1:7" ht="18" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6734,7 +6654,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="13.8">
+    <row r="125" spans="1:7" ht="18" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6743,7 +6663,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="13.8">
+    <row r="126" spans="1:7" ht="18" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6752,7 +6672,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="13.8">
+    <row r="127" spans="1:7" ht="18" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6761,7 +6681,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="13.8">
+    <row r="128" spans="1:7" ht="18" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6770,7 +6690,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="13.8">
+    <row r="129" spans="1:7" ht="18" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6779,7 +6699,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="13.8">
+    <row r="130" spans="1:7" ht="18" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6788,7 +6708,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="13.8">
+    <row r="131" spans="1:7" ht="18" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6797,7 +6717,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="13.8">
+    <row r="132" spans="1:7" ht="18" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6806,7 +6726,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" ht="13.8">
+    <row r="133" spans="1:7" ht="18" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6815,7 +6735,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" ht="13.8">
+    <row r="134" spans="1:7" ht="18" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6824,7 +6744,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" ht="13.8">
+    <row r="135" spans="1:7" ht="18" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6833,7 +6753,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="13.8">
+    <row r="136" spans="1:7" ht="18" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6842,7 +6762,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" ht="13.8">
+    <row r="137" spans="1:7" ht="18" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6851,7 +6771,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="13.8">
+    <row r="138" spans="1:7" ht="18" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6860,7 +6780,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" ht="13.8">
+    <row r="139" spans="1:7" ht="18" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6869,7 +6789,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" ht="13.8">
+    <row r="140" spans="1:7" ht="18" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6878,7 +6798,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="13.8">
+    <row r="141" spans="1:7" ht="18" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6887,7 +6807,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="13.8">
+    <row r="142" spans="1:7" ht="18" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6896,7 +6816,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="13.8">
+    <row r="143" spans="1:7" ht="18" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6905,7 +6825,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="13.8">
+    <row r="144" spans="1:7" ht="18" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6914,7 +6834,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="13.8">
+    <row r="145" spans="1:7" ht="18" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6923,7 +6843,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="13.8">
+    <row r="146" spans="1:7" ht="18" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6932,7 +6852,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="13.8">
+    <row r="147" spans="1:7" ht="18" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6941,7 +6861,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="13.8">
+    <row r="148" spans="1:7" ht="18" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6950,7 +6870,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="13.8">
+    <row r="149" spans="1:7" ht="18" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6959,7 +6879,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="13.8">
+    <row r="150" spans="1:7" ht="18" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6968,7 +6888,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="13.8">
+    <row r="151" spans="1:7" ht="18" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6977,7 +6897,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="13.8">
+    <row r="152" spans="1:7" ht="18" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6986,7 +6906,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="13.8">
+    <row r="153" spans="1:7" ht="18" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6995,7 +6915,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="13.8">
+    <row r="154" spans="1:7" ht="18" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7004,7 +6924,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="13.8">
+    <row r="155" spans="1:7" ht="18" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7013,7 +6933,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" ht="13.8">
+    <row r="156" spans="1:7" ht="18" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7022,7 +6942,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" ht="13.8">
+    <row r="157" spans="1:7" ht="18" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7031,7 +6951,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="13.8">
+    <row r="158" spans="1:7" ht="18" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7040,7 +6960,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="13.8">
+    <row r="159" spans="1:7" ht="18" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7049,7 +6969,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" ht="13.8">
+    <row r="160" spans="1:7" ht="18" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7058,7 +6978,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" ht="13.8">
+    <row r="161" spans="1:7" ht="18" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7067,7 +6987,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="13.8">
+    <row r="162" spans="1:7" ht="18" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7076,7 +6996,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="13.8">
+    <row r="163" spans="1:7" ht="18" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7085,7 +7005,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" ht="13.8">
+    <row r="164" spans="1:7" ht="18" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7094,7 +7014,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="13.8">
+    <row r="165" spans="1:7" ht="18" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7103,7 +7023,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="13.8">
+    <row r="166" spans="1:7" ht="18" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7112,7 +7032,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="13.8">
+    <row r="167" spans="1:7" ht="18" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7121,7 +7041,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="13.8">
+    <row r="168" spans="1:7" ht="18" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7130,7 +7050,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" ht="13.8">
+    <row r="169" spans="1:7" ht="18" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7139,7 +7059,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" ht="13.8">
+    <row r="170" spans="1:7" ht="18" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7148,7 +7068,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" ht="13.8">
+    <row r="171" spans="1:7" ht="18" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7157,7 +7077,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="13.8">
+    <row r="172" spans="1:7" ht="18" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7166,7 +7086,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="13.8">
+    <row r="173" spans="1:7" ht="18" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7175,7 +7095,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" ht="13.8">
+    <row r="174" spans="1:7" ht="18" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7184,7 +7104,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" ht="13.8">
+    <row r="175" spans="1:7" ht="18" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7193,7 +7113,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" ht="13.8">
+    <row r="176" spans="1:7" ht="18" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7202,7 +7122,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" ht="13.8">
+    <row r="177" spans="1:7" ht="18" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7211,7 +7131,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="13.8">
+    <row r="178" spans="1:7" ht="18" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7220,7 +7140,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="13.8">
+    <row r="179" spans="1:7" ht="18" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7229,7 +7149,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="13.8">
+    <row r="180" spans="1:7" ht="18" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7238,7 +7158,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" ht="13.8">
+    <row r="181" spans="1:7" ht="18" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7247,7 +7167,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" ht="13.8">
+    <row r="182" spans="1:7" ht="18" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7256,7 +7176,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" ht="13.8">
+    <row r="183" spans="1:7" ht="18" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7265,7 +7185,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="13.8">
+    <row r="184" spans="1:7" ht="18" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7274,7 +7194,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="13.8">
+    <row r="185" spans="1:7" ht="18" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7283,7 +7203,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="13.8">
+    <row r="186" spans="1:7" ht="18" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7292,7 +7212,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="13.8">
+    <row r="187" spans="1:7" ht="18" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7301,7 +7221,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="13.8">
+    <row r="188" spans="1:7" ht="18" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7310,7 +7230,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="13.8">
+    <row r="189" spans="1:7" ht="18" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7319,7 +7239,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="13.8">
+    <row r="190" spans="1:7" ht="18" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7328,7 +7248,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="13.8">
+    <row r="191" spans="1:7" ht="18" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7337,7 +7257,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="13.8">
+    <row r="192" spans="1:7" ht="18" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7346,7 +7266,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="13.8">
+    <row r="193" spans="1:7" ht="18" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7355,7 +7275,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="13.8">
+    <row r="194" spans="1:7" ht="18" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7364,7 +7284,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="13.8">
+    <row r="195" spans="1:7" ht="18" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7373,7 +7293,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" ht="13.8">
+    <row r="196" spans="1:7" ht="18" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7382,7 +7302,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" ht="13.8">
+    <row r="197" spans="1:7" ht="18" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7391,7 +7311,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="13.8">
+    <row r="198" spans="1:7" ht="18" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7400,30 +7320,21 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="13.8">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:AE64"/>
-    <mergeCell ref="A43:AE43"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A25:AE25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:AE49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:AE58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:AE63"/>
+    <mergeCell ref="A42:AE42"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A24:AE24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A37:AE37"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
